--- a/s1cDNASample/s1CDNASample_hbrown_07.22.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_07.22.19.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">NEBNextPoly(A)E7490</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -195,10 +195,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,7 +256,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,7 +284,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E27"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,7 +362,7 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -406,7 +410,7 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -438,7 +442,7 @@
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -470,7 +474,7 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -502,7 +506,7 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -534,7 +538,7 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -566,7 +570,7 @@
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -598,7 +602,7 @@
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -630,7 +634,7 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -662,7 +666,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -694,7 +698,7 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -726,7 +730,7 @@
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -758,7 +762,7 @@
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -790,7 +794,7 @@
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -822,7 +826,7 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -854,7 +858,7 @@
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -886,7 +890,7 @@
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -918,7 +922,7 @@
       <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -950,7 +954,7 @@
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -982,7 +986,7 @@
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1014,7 +1018,7 @@
       <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1046,7 +1050,7 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1078,7 +1082,7 @@
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1110,7 +1114,7 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1142,7 +1146,7 @@
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1174,7 +1178,7 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_07.22.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_07.22.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -64,13 +64,10 @@
     <t xml:space="preserve">07.22.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -155,8 +152,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -243,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,6 +259,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,12 +286,14 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -365,11 +369,11 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -396,7 +400,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -413,11 +417,11 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +432,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -445,11 +449,11 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -477,11 +481,11 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -509,11 +513,11 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -541,11 +545,11 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -573,11 +577,11 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -605,11 +609,11 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -637,11 +641,11 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -669,11 +673,11 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -701,11 +705,11 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -733,11 +737,11 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -765,11 +769,11 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
+      <c r="I14" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -797,11 +801,11 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
+      <c r="I15" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -829,11 +833,11 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -861,11 +865,11 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
@@ -893,11 +897,11 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
+      <c r="I18" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -925,11 +929,11 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
+      <c r="I19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -957,11 +961,11 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -989,11 +993,11 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1021,11 +1025,11 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -1053,11 +1057,11 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
+      <c r="I23" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
@@ -1085,11 +1089,11 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
+      <c r="I24" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -1117,11 +1121,11 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
+      <c r="I25" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -1149,11 +1153,11 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
+      <c r="I26" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
@@ -1181,11 +1185,11 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
+      <c r="I27" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_hbrown_07.22.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_07.22.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">07.22.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -286,7 +286,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -369,7 +369,8 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -417,7 +418,8 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -449,7 +451,8 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -481,7 +484,8 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -513,7 +517,8 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -545,7 +550,8 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -577,7 +583,8 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -609,7 +616,8 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -641,7 +649,8 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -673,7 +682,8 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -705,7 +715,8 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -737,7 +748,8 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -769,7 +781,8 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -801,7 +814,8 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="b">
+      <c r="I15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -833,7 +847,8 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="I16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -865,7 +880,8 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -897,7 +913,8 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="I18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -929,7 +946,8 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="I19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -961,7 +979,8 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="b">
+      <c r="I20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -993,7 +1012,8 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="b">
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1025,7 +1045,8 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5" t="b">
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1057,7 +1078,8 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="b">
+      <c r="I23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1089,7 +1111,8 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5" t="b">
+      <c r="I24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1121,7 +1144,8 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="5" t="b">
+      <c r="I25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1153,7 +1177,8 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="b">
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1185,7 +1210,8 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="5" t="b">
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_07.22.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_07.22.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA651B2A-91D2-FB4D-9191-9CE481681CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40CCD3C-3642-4F48-A473-39DD8C23820F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="17">
   <si>
     <t>rnaDate</t>
   </si>
@@ -79,15 +79,15 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -141,7 +141,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I2" sqref="I2:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,9 +542,8 @@
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -591,9 +590,8 @@
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -624,9 +622,8 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -657,9 +654,8 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -690,9 +686,8 @@
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -723,9 +718,8 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -756,9 +750,8 @@
       <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -789,9 +782,8 @@
       <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -822,9 +814,8 @@
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
@@ -855,9 +846,8 @@
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
@@ -888,9 +878,8 @@
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
@@ -921,9 +910,8 @@
       <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
@@ -954,9 +942,8 @@
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
@@ -987,9 +974,8 @@
       <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
@@ -1020,9 +1006,8 @@
       <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -1053,9 +1038,8 @@
       <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -1086,9 +1070,8 @@
       <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -1119,9 +1102,8 @@
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
@@ -1152,9 +1134,8 @@
       <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
@@ -1185,9 +1166,8 @@
       <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I21" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
@@ -1218,9 +1198,8 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
@@ -1251,9 +1230,8 @@
       <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I23" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
@@ -1284,9 +1262,8 @@
       <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
@@ -1317,9 +1294,8 @@
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
@@ -1350,9 +1326,8 @@
       <c r="H26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -1383,9 +1358,8 @@
       <c r="H27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I27" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
